--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>2.067653164345113</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>24.61142070177998</v>
+        <v>24.61142070177999</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-3.682171940896556</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.226331716931297</v>
+        <v>-2.501139676366543</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>18.20390384298209</v>
+        <v>18.85688039323738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.562040137848218</v>
+        <v>-7.312243173167506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.59565909318194</v>
+        <v>12.95074985983053</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.71224493132417</v>
+        <v>-4.029640214479177</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.69588575129132</v>
+        <v>17.24719134419469</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.463093378699071</v>
+        <v>6.818595510422648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.51041877797588</v>
+        <v>30.47051488183706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.09674285734728214</v>
+        <v>0.485080239735243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.15055424062269</v>
+        <v>22.69766247291453</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.94586439887139</v>
+        <v>1.741680283471576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.90384693260282</v>
+        <v>25.13212403293645</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.3422604436147643</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4.073950076655525</v>
+        <v>4.073950076655526</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.5171450031198404</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3741665052240381</v>
+        <v>-0.3043105006268297</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.932245050173056</v>
+        <v>1.948388368733089</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7942489135050319</v>
+        <v>-0.7744741936418474</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.246160297433329</v>
+        <v>1.289212341763099</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4579640485339504</v>
+        <v>-0.4786971653512673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.910473995604399</v>
+        <v>1.977320728777725</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.845255790783603</v>
+        <v>1.909163189561962</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>9.114837492250375</v>
+        <v>8.233108569666882</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05120840747615333</v>
+        <v>0.1957900637414491</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.536344700325545</v>
+        <v>4.854427341737873</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.409915742332319</v>
+        <v>0.3492514052796924</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.245877024310884</v>
+        <v>5.060755340706327</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>0.5831301320290485</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>23.08546772959856</v>
+        <v>23.08546772959855</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.901029056899465</v>
+        <v>-3.08665059773972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>18.65119528977665</v>
+        <v>18.39111122297751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.710717690100847</v>
+        <v>-4.341416048940435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.28217094617233</v>
+        <v>18.16313393400687</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.312424458336454</v>
+        <v>-2.127584150456464</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.96985758431695</v>
+        <v>19.66658087676078</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.140185052570438</v>
+        <v>5.212342267388618</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28.00382028418136</v>
+        <v>28.19673814553477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.506803076707859</v>
+        <v>3.300598243069585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.28104310743053</v>
+        <v>26.3000998105799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.525402096724106</v>
+        <v>3.41381863102372</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.14130777886407</v>
+        <v>26.01754879131119</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>0.06722747455126442</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.661460296855851</v>
+        <v>2.66146029685585</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2473572738419329</v>
+        <v>-0.2598132870960532</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.390459756417447</v>
+        <v>1.485305677754296</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4385985645497923</v>
+        <v>-0.4262313698323195</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.672536007156918</v>
+        <v>1.712142833924495</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2311129622236551</v>
+        <v>-0.2143287123438114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.9032380439334</v>
+        <v>1.866790636248983</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8770783688337142</v>
+        <v>0.7361425068080996</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.999183828579676</v>
+        <v>3.988744401762016</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5399614407414032</v>
+        <v>0.5604239637282357</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.470103784080182</v>
+        <v>4.633004926325357</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4837351680875688</v>
+        <v>0.4712643105553717</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.69571222656426</v>
+        <v>3.729835947653753</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>2.551431063115171</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>34.15839820071452</v>
+        <v>34.1583982007145</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.736939677136951</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.984037992210598</v>
+        <v>-3.488318886806757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>27.41537104907613</v>
+        <v>27.47471454289401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.892932225356823</v>
+        <v>-5.232952321325508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22.87029114206125</v>
+        <v>23.15250274876435</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.652183421365525</v>
+        <v>-2.755722464739844</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.07923615749785</v>
+        <v>27.18023341208571</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.14789591690176</v>
+        <v>7.70374721698011</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>39.20207782700617</v>
+        <v>39.69170324938667</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.711959027547376</v>
+        <v>3.196497839697928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32.40042536896779</v>
+        <v>32.41796712022683</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.17839590072431</v>
+        <v>4.129319460495317</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>34.56560305908901</v>
+        <v>34.44360637606311</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.2343367301233971</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3.137285367543965</v>
+        <v>3.137285367543964</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.07727820192975098</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2182231888721906</v>
+        <v>-0.2571966855684829</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.735918118297273</v>
+        <v>1.771727970526273</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4281661526771868</v>
+        <v>-0.4456775385572609</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.807504024104079</v>
+        <v>1.793567986586422</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2162320857794873</v>
+        <v>-0.2288143548217989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.12118710609023</v>
+        <v>2.173372374623664</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.952048350441809</v>
+        <v>0.9830057894960252</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.944304114659684</v>
+        <v>4.897367468184471</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5000344995846895</v>
+        <v>0.4577540800654402</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.572761988217743</v>
+        <v>4.62087230965052</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5038063086079397</v>
+        <v>0.4982157000566659</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.236917627786231</v>
+        <v>4.307464336085974</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.198937939670572</v>
+        <v>-1.596038725228635</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>18.17277207906808</v>
+        <v>17.64533893722026</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004988763543893555</v>
+        <v>-0.2007149720634893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.04502577363652</v>
+        <v>17.95293469127234</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.051829323837092</v>
+        <v>0.8482141156736553</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.61913873928713</v>
+        <v>19.30096945495465</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.4809036585865</v>
+        <v>10.39700991046034</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.59404510252494</v>
+        <v>30.82195643697655</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.309120800206381</v>
+        <v>7.861370883065473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25.45884740845326</v>
+        <v>25.94145490148993</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.458699057991121</v>
+        <v>7.348069395681518</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.60425534738252</v>
+        <v>26.24717311422253</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>0.4107627868486162</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>2.195329574390327</v>
+        <v>2.195329574390326</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.6924347274798843</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09734066343539244</v>
+        <v>-0.1304607560490148</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.159061368489467</v>
+        <v>1.182216256817915</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03292982868555116</v>
+        <v>-0.04866495035491298</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.049167594234528</v>
+        <v>2.302673910524615</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1007092501672195</v>
+        <v>0.06335275085012289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.03450079903157</v>
+        <v>1.936944879811678</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.250763938972922</v>
+        <v>1.25026750943261</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.837979419955831</v>
+        <v>3.856429595251686</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.122327908059243</v>
+        <v>2.068225590986081</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.01373768311587</v>
+        <v>7.516536179398051</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.25553502780713</v>
+        <v>1.156142200494759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.513440335347619</v>
+        <v>4.355478314632353</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2475392556627925</v>
+        <v>-0.259492714962154</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.71787883414238</v>
+        <v>23.93780299660472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.99500876484107</v>
+        <v>-2.039125345702559</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20.33913168151678</v>
+        <v>20.70739725638179</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6580136062610081</v>
+        <v>-0.4408534813603082</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>23.0476701530008</v>
+        <v>22.81534006022883</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.781362759549705</v>
+        <v>4.942831466813461</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.55076859090433</v>
+        <v>29.41927641415141</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.902100510604785</v>
+        <v>1.92573342921992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.86983831525729</v>
+        <v>25.01797270317397</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.823511596694898</v>
+        <v>2.641798900398402</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.45524053081887</v>
+        <v>26.35646555595795</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02658704861682854</v>
+        <v>-0.02823248333621844</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2.102733677127556</v>
+        <v>2.104363921479787</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2405198023389686</v>
+        <v>-0.2352678425750311</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2.301047597480152</v>
+        <v>2.326044927537994</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07132836340458081</v>
+        <v>-0.04638533328606377</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>2.444909969668772</v>
+        <v>2.425301553990337</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5994881803036747</v>
+        <v>0.6069952283185476</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.755417902899091</v>
+        <v>3.729754242589152</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2817009788965603</v>
+        <v>0.2861100786240702</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.917823695678208</v>
+        <v>3.991814494041387</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3670416517191701</v>
+        <v>0.352703438940992</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.568134397633279</v>
+        <v>3.514625672604241</v>
       </c>
     </row>
     <row r="34">
